--- a/Bench-in-loop/Summarize.xlsx
+++ b/Bench-in-loop/Summarize.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ikerlan-my.sharepoint.com/personal/mrodriguez_ikerlan_es/Documents/Documentos/Docs PhD Marcos/Experiments_docs/iGPUs/Rodinia evaluation/Bench-in-loop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ikerlan-my.sharepoint.com/personal/mrodriguez_ikerlan_es/Documents/Documentos/GitHub/MARS-data/Bench-in-loop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="563" documentId="11_F25DC773A252ABDACC1048CE395E7F525BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F35C206-BF9F-40F8-AE0A-7B7679D3D228}"/>
+  <xr:revisionPtr revIDLastSave="586" documentId="11_F25DC773A252ABDACC1048CE395E7F525BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8CFACC8-FD16-4186-9EC0-5C3284D54FE0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -594,7 +594,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
@@ -657,6 +657,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -689,12 +692,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1099,10 +1096,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1120,8 +1117,12 @@
     <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1162,11 +1163,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+    <row r="3" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1204,9 +1205,9 @@
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
+    <row r="4" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1239,9 +1240,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="33" t="s">
+    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1278,9 +1279,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
+    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1315,9 +1316,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="33" t="s">
+    <row r="7" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1354,9 +1355,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="27"/>
-      <c r="C8" s="34"/>
+    <row r="8" spans="1:15" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="28"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="10" t="s">
         <v>12</v>
       </c>
@@ -1378,10 +1379,10 @@
       <c r="J8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="7" t="s">
         <v>68</v>
       </c>
       <c r="M8" s="9" t="s">
@@ -1391,8 +1392,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1430,9 +1431,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="32"/>
-      <c r="C10" s="33" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1469,9 +1470,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
@@ -1506,9 +1507,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1543,8 +1544,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="33"/>
       <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1582,8 +1583,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="32"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="33"/>
       <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1606,10 +1607,10 @@
       <c r="J14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="L14" s="36"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="7" t="s">
         <v>73</v>
       </c>
@@ -1617,8 +1618,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="28"/>
       <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
@@ -1654,8 +1655,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="28" t="s">
+    <row r="16" spans="1:15" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -1694,8 +1695,8 @@
       </c>
     </row>
     <row r="17" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="32" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1723,8 +1724,8 @@
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="6" t="s">
         <v>54</v>
       </c>
@@ -1750,8 +1751,8 @@
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="6" t="s">
         <v>59</v>
       </c>
@@ -1777,8 +1778,8 @@
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="6" t="s">
         <v>60</v>
       </c>
@@ -1804,8 +1805,8 @@
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="29"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="6" t="s">
         <v>64</v>
       </c>
@@ -1831,8 +1832,8 @@
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="29"/>
-      <c r="C22" s="31"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="6" t="s">
         <v>65</v>
       </c>
@@ -1858,8 +1859,8 @@
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="29"/>
-      <c r="C23" s="31"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="6" t="s">
         <v>61</v>
       </c>
@@ -1885,8 +1886,8 @@
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="2:14" ht="14.4" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="30"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="10" t="s">
         <v>62</v>
       </c>
@@ -1912,10 +1913,10 @@
       <c r="N24" s="19"/>
     </row>
     <row r="25" spans="2:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1951,8 +1952,8 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="27"/>
-      <c r="C26" s="25"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="10" t="s">
         <v>32</v>
       </c>
@@ -1987,17 +1988,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C17:C24"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C10:C12"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C17:C24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3:B8" r:id="rId1" display="Dense Linear Algebra" xr:uid="{6AB7E641-7B55-488A-AF92-1D27B6E1EE9D}"/>
@@ -2028,10 +2029,11 @@
     <hyperlink ref="D22" r:id="rId26" display="193k elements (pre)" xr:uid="{B327A581-E1CA-40BA-83B1-ECBD5CF01EDB}"/>
     <hyperlink ref="D23" r:id="rId27" display="97k elements (pre + double)" xr:uid="{2D8ABA87-2F56-4BF8-B448-1779DA8AD7E7}"/>
     <hyperlink ref="D24" r:id="rId28" display="193k elements (pre + double)" xr:uid="{80C439FF-9FCD-4114-BFE1-CCEA64289310}"/>
+    <hyperlink ref="B16:B24" r:id="rId29" display="Unstructured grid" xr:uid="{1455F373-2C0D-4B6B-A093-5D1D6F435C16}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId29"/>
-  <drawing r:id="rId30"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId30"/>
+  <drawing r:id="rId31"/>
 </worksheet>
 </file>
 
